--- a/netflix_films.xlsx
+++ b/netflix_films.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>title</t>
   </si>
@@ -38,15 +38,15 @@
     <t>starring</t>
   </si>
   <si>
-    <t>cast</t>
-  </si>
-  <si>
     <t>creator</t>
   </si>
   <si>
     <t>episodes</t>
   </si>
   <si>
+    <t>IMDB.id</t>
+  </si>
+  <si>
     <t>60037627</t>
   </si>
   <si>
@@ -56,6 +56,72 @@
     <t>60036691</t>
   </si>
   <si>
+    <t>80025678</t>
+  </si>
+  <si>
+    <t>70177083</t>
+  </si>
+  <si>
+    <t>80144588</t>
+  </si>
+  <si>
+    <t>80037759</t>
+  </si>
+  <si>
+    <t>70184207</t>
+  </si>
+  <si>
+    <t>80025384</t>
+  </si>
+  <si>
+    <t>80000770</t>
+  </si>
+  <si>
+    <t>80107369</t>
+  </si>
+  <si>
+    <t>80097003</t>
+  </si>
+  <si>
+    <t>70052705</t>
+  </si>
+  <si>
+    <t>80091741</t>
+  </si>
+  <si>
+    <t>80117470</t>
+  </si>
+  <si>
+    <t>80053653</t>
+  </si>
+  <si>
+    <t>939827</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>The Manchurian Candidate</t>
   </si>
   <si>
@@ -65,6 +131,21 @@
     <t>Paris Is Burning</t>
   </si>
   <si>
+    <t>Dope</t>
+  </si>
+  <si>
+    <t>Burning Sands</t>
+  </si>
+  <si>
+    <t>The Queen</t>
+  </si>
+  <si>
+    <t>13TH</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
@@ -74,12 +155,30 @@
     <t>1990</t>
   </si>
   <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
+    <t>TV-MA</t>
+  </si>
+  <si>
+    <t>PG-13</t>
+  </si>
+  <si>
     <t>2h 9m</t>
   </si>
   <si>
@@ -89,13 +188,66 @@
     <t>1h 16m</t>
   </si>
   <si>
-    <t>Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate.</t>
-  </si>
-  <si>
-    <t>A Polynesian girl destined to be her island's chief makes a perilous trip with a boastful demigod to undo his mistake and save her people.</t>
-  </si>
-  <si>
-    <t>This Sundance prize-winning documentary is an intimate portrait of 1980s Harlem drag balls: a world of fierce competition, sustenance, and survival.</t>
+    <t>1h 42m</t>
+  </si>
+  <si>
+    <t>1h 43m</t>
+  </si>
+  <si>
+    <t>1h 40m</t>
+  </si>
+  <si>
+    <t>1h 51m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate. 
+This is a remake of the 1962 thriller of soldiers, returning from war, who have been brainwashed and programmed to kill. The movie has been updated from the Korean War era to the war in Iraq (Desert Storm). Captain Bennett Marco (Denzel Washington) is now playing Frank Sinatra's part. Time has passed, and now Major Marco is giving speeches about his platoon being ambushed in the Kuwaiti desert. The Lost Platoon was saved by the heroics of Sergeant Raymond Prentiss Shaw (Liev Schreiber), who received the Medal of Honor. Shaw is now a candidate, running for Vice-President of the United States. Marco can't sleep at night, and when he does, he is having nightmares of what really happened in the desert. He thinks Shaw might not be a hero, and that he may have had something to do with the death of two soldiers in the desert. Marco tries to find the truth and people around him begin to die.Douglas Young (the-movie-guy)
+</t>
+  </si>
+  <si>
+    <t>A Polynesian girl destined to be her island's chief makes a perilous trip with a boastful demigod to undo his mistake and save her people. 
+Gramma Tala (voice: Rachel House) is telling a story to a group of children, with an animated tapa cloth illustrating her words. From the ocean sprang the island goddess Te Fiti. She lay on her side, with her curves becoming mountains and valleys. And in the center was her heart, a stone with a spiral shape on one side, giving out the force of life. Men began to covet her heart, wanting its life-giving power for themselves. A boat carrying the demigod Maui (voice: Dwayne Johnson) sailed toward the island, and he jumped off and magically transformed into a hawk. He landed on the island and changed again into a lizard to make his way through the forest. Reaching a row of large rocks, he became a bug and squeezed between them. When he reached the heart, he turned back into a man, and he used his large fish hook to pry out the heart.Without her heart, the island of Te Fiti began to crumble. Maui ran to the edge of the island, jumped off a cliff and changed into a hawk in midair, then flew back to his boat. He tried to escape, but a lava monster named Te Ka, who also wanted the heart, arose from the sea into a volcano and started to erupt. Maui grabbed his hook and jumped at Te Ka. There was a blinding flash, and Maui was struck from the sky. Maui, the hook and the heart were lost at sea.A thousand years later, Te Ka still lurks, draining fish from the ocean and swallowing up one island after another until there will be none left. But, Gramma Tala says, one day a hero will journey beyond the reef, find Maui and sail with him across the ocean to restore the heart and save everyone. One little girl is spellbound, but the other children are terrified. Before Tala can continue, Chief Tui (voice: Temuera Morrison) reminds the children of the most important rule of the island, the one that keeps them safe: nobody goes beyond the reef.The spellbound girl, the toddler Moana (voice: Louise Bush), slips away and walks to the beach. She sees a baby turtle being menaced by a group of seabirds and she escorts it into the ocean, shading it with a leaf and shooing the birds away. When the turtle is safe, the ocean recedes, revealing a trail of beautiful seashells, which Moana gathers in her tiny arms. A wave forms over her head and magically stays in place. She pokes the wave with her finger and water drips down on her. The wave comes down over her hair and gives her a silly hairstyle. Moana plays with the wave some more, and then the ocean parts, making a canyon that she walks through. She sees a shiny object, and the ocean brings it closer. It's a glowing green stone with an interesting spiral shape.She picks up the stone and, just then, her father, Chief Tui, calls out to her. The ocean lifts her and deposits her back on the shore. Her father races over and picks her up, causing her to drop the stone. Before she can see where it went, her father pulls her close and tells her never to go into the ocean again. He takes her back to the village where her mother, Sina (voice: Nicole Scherzinger), is waiting for them. She tells Moana that she will do wondrous things as the next chief of the island but Tui tells her that she must learn where she's meant to be.Growing up, Moana learns everything about life on her island, Motunui (song: "Where You Are"). She finds herself drawn to the ocean but, every time she goes near it, her parents drag her back, away from the water. She never even learns to sail. Gramma Tala encourages Moana to follow her heart and listen to the voice inside, to figure out who she really is. One day, Chief Tui leads the now sixteen-year-old Moana (voice: Auli'i Cravalho) up to the peak of the tallest mountain. He shows her a tall pile of stones and tells her that one day, she will place her stone on the pile, just as he and the chiefs before him did.Moana makes her rounds of the island, giving advice to everyone who asks. When a man points out the rooster Heihei (voice: Alan Tudyk) dumbly pecking at a rock, Moana tells him that sometimes strength is hidden beneath the surface. A fisherman walks up to her and tells her that there are fewer fish every day. She suggests fishing in different areas but they have already tried that. She tells him that they should try fishing beyond the reef but Tui reminds her of the rule. The men walk away, leaving Moana alone. Sina walks up to her and explains that once, Tui went sailing beyond the reef with a friend and ran into giant waves. Tui was unable to save his friend and he doesn't want to lose Moana the same way. Sina tells her she must make her own choices, however hard they are.Moana climbs the peak, preparing to add her stone to the pile. She sees the sun reflect off the ocean and she realizes that she can't ignore the call of the water any more (song: "How Far I'll Go"). She drops her stone and runs down to the sea. She takes her pet pig, Pua, on a boat and casts off. She feels excitement as a wave picks her up but then the wind changes and the boom swings toward her and just misses her head. She feels relief but another wave hits the boat, knocking Pua overboard. A third wave hits, knocking her off as well and breaking the boat. She hits the surface with Pua in her arms but waves continue to hit the broken boat, driving it into her head and pushing her underwater. She gets her foot trapped in coral, unable to break free. She grabs a rock and smashes the coral then swims back to the surface. The waves push her and Pua back to the shore. The boat comes back in pieces and Moana knows she'll be in trouble for what she did. Gramma Tala walks up to her and Moana says that Tui was right about going out there. She tells Tala that she's going to put her stone on the pile. Tala sees a school of manta rays swim up and says that when she dies, she's going to come back as one of them. Desperate for advice, Moana asks Tala if there's anything she wants to tell her and Tala asks her if there's anything she wants to hear. Tala walks off and Moana decides to follow her, knowing that she would tell a good story.Carrying a torch, Tala leads Moana into a cavern. Tala tells her to go inside and bang the drum to get the answers she's looking for. Moana carefully makes her way into the dark cavern, finding dozens of boats--outrigger sailing canoes. She jumps onto a canoe and sees a log drum. Picking up a pair of sticks next to it, she bangs on the drum, causing torches to magically light up, illuminating the tapa sail. She sees an image of her ancestors, voyagers who fearlessly sailed the ocean, finding new homes whenever they needed to (song: "We Know the Way"). She asks Tala why they ever stopped voyaging and Tala tells her about Maui. After he stole the heart, the ships that sailed out never came back. And Te Ka has been chasing away the fish, draining life from one island after another. She repeats what she told Moana as a child, that one day someone will restore the heart and save everyone. Then, she presses a green stone into Moana's hand. Moana recognizes it as the same stone the ocean lead her to years before. Tala points to a hook-shaped constellation and tells her that Maui can be found at the bottom of his hook.Tui is talking to the island council, trying to reassure them that they won't run out of food, when Moana bursts in and tells him that she can restore the heart of Te Fiti. Angrily, he grabs the green stone from her hand and throws it into the bushes. She runs to get it and finds Gramma Tala's walking stick as well. A warrior runs up and tells them that Tala is not well. Moana and Tui run toward her hut. Tala whispers in Moana's ear that she must leave now and then hands her the necklace that her voyager ancestors wore. Moana puts the heart of Te Fiti in the necklace and makes up her mind to leave. Grabbing supplies, she heads to the cavern and boards one of the canoes. As she sails off, she sees the light in Tala's hut go out. She sees the glow of a manta ray passing by, illuminating a safe passage. It looks just like her grandmother's manta ray tattoo. Reaching the ocean, Moana sets a course for Maui.Moana paddles the boat through the night and day. A clucking noise leads her to find Heihei in the cargo hold. As night falls, she starts to fall asleep and when a wave shocks her awake, she looks at the sky, unable to find the hook constellation. She sees that it's now behind her and tries to turn the boat around, but the wind pushes it over, dumping her into the water. She swims back to the boat and tries to right it, but the waves get worse. A large wave crashes down on her and everything goes black.When she opens her eyes, she finds herself on a shore. Feeling for her necklace, she is relieved to find the heart is still there. She sees Heihei pecking at a rock and notices that it has a hook design on it. Following a set of footprints, she sees a camp, and realizes Maui must be inside. She ducks behind her boat to prepare herself and Maui comes out and sees the boat. Joyously, he picks it up with one hand, revealing Moana behind it. He thinks she's just a young fan of his and he picks up Heihei and uses his beak to scratch a sort of autograph (a heart and a hook) into Moana's oar. He jokes that when you write with a bird, it's called tweeting.Moana tries to give the speech she's been practicing, telling him who she is, that she knows he stole the heart of Te Fiti, and that she needs him to restore it. He isn't interested but he distracts her by boasting about his exploits (song: "You're Welcome"). Moana gets a first glimpse of Maui's animated tattoos, which help him tell stories and sometimes serve as his conscience. Maui tosses her into a cave and rolls a boulder over the entrance. He takes her boat and sails off to get his magic hook. Inside the cave, Moana sees a statue that Maui made of himself. Finding a small opening in the ceiling, she climbs the statue, tips it over and climbs out. Seeing Maui sailing away, she jumps into the ocean to swim after him, but she can't keep up. Suddenly the ocean pulls her along rapidly and deposits her on the boat. Maui throws her off and the ocean puts her right back on. Maui throws away the heart and the ocean throws it back at him. He jumps off himself and the ocean puts him back on the boat. He tells her that the heart is a curse and bad things will come for them if they keep it. Just then, a spear lands on the side of the boat. Looking into a bank of fog, they see a large silhouette moving toward them.Maui tells Moana that they're under attack by the Kakamora, tiny coconut-shelled warriors. His first impulse is to flee but, when he urgently orders Moana to tighten the halyard and find the stays, she looks bewildered. "You can't sail?" he asks incredulously. "I'm self-taught," she replies. Meanwhile, the Kakamora load spears tied to ropes into their catapults, launch them at the boat, and zip-line across to it. They knock Moana to the deck, dislodging the heart from the necklace. Heihei gobbles up the heart and the Kakamora grab him and take him back to their ship. Moana tells Maui that they have to get Heihei back and Maui sails close to the other ship but he is intent on escape and not retrieving the heart. Moana jumps across and bats the Kakamora away with an oar. She runs past the Kakamora chief and grabs Heihei as they shoot blow darts at her. She uses a spear with a rope to zip-line herself back to her canoe. Heihei regurgitates the heart which Moana triumphantly grabs, before realizing that they are surrounded by Kakamora boats.Maui expertly sails through the swarm of boats, causing them to collide and sink. Maui tells Moana he won't help her return the heart but she says he'd be the biggest hero ever if he did. He replies that he won't be able to defeat Te Ka without his magic hook, so she says they need to go and get it. Maui sails them to the lair of Tamatoa (voice: Jemaine Clement), teaching Moana about sailing and wayfinding (celestial navigation) as they go. He moors the ship at a tall spire, the entrance to Lalotai, the realm of monsters. He tells her to stay put as he climbs the spire but she decides to follow him. They reach the plateau at the top and Maui stomps the ground, making a face carving appear. The mouth opens, revealing a vortex below. He jumps in and Moana follows him. They fall through the air and land in an ocean, still falling. They break into the underworld and a monster grabs Moana with its tongue.The monster is pulling Moana toward its mouth when another monster eats the first and she falls to the ground still wrapped in the first monster's tongue. She looks around and sees Maui's hook inside a cave, surrounded by treasure. Maui pops up behind her and tells her that he's going to use her as a distraction. She bangs gold objects together, trying to make as much noise as possible. Maui tells her that when Tamatoa shows up, she should get him to talk about himself. The floor rumbles and Tamatoa, a crab monster, greets her. He grabs her in a claw and asks her what she's doing there. As Maui sneaks toward the hook, Moana tells Tamatoa that she came to rob him but, now that she sees his splendor, she has to know how he became so beautiful. Smiling, Tamatoa tells her that he decorated himself and his cave with gold to lure in fish (song: "Shiny"). Then he lifts Moana in the air and draws her toward his mouth. Just then, Maui grabs his hook and pulls Moana free. He tries to transform into a hawk but ends up turning into other animals and then back to his demigod form. Tamatoa knocks Maui across the cave with a claw and continues hitting him. Moana begs him to stop but he throws her into a bone cage and continues hitting Maui. Moana slips out of the cage, unseen, and notices a crack in the cave's wall that she can escape through. Looking back, she realizes she can't leave Maui behind.Tamatoa grabs the hook back from Maui and knocks him across the cave again. As he's preparing to deliver a death blow, Moana holds up the green, glowing heart to get his attention. Tamatoa drops Maui and chases Moana, who loses her footing and drops the heart and it falls into a crevice. Tamatoa tries to grab it and Moana takes the hook and brings it to Maui, telling him they have to leave. He asks about the heart and she shows him the necklace with the heart still inside. When Tamatoa reaches into the crevice, he pulls out a barnacle covered with glowing algae. Enraged, he pursues the pair, who run out of the cave. They reach a geyser that erupts and shoots them high in the air and back into the ocean above.Returning to the shore, Maui tells Moana that since he can't control his transformations, they have no chance of beating Te Ka. She sees a tattoo on his back of a woman throwing a baby in to the sea, and asks him how he got it. He says that he was born a human and his mother didn't want him, tossing him into the ocean as a baby. But the gods found him, raised him, and gave him the hook. She says that the gods saw something in him that was worth saving and he starts practicing his transformations. He regains control, turning into a bug, a lizard, a shark and a hawk. Maui lets Moana navigate this time and, in the morning, she sees a ring of islands surrounding Te Fiti. Maui tells her that she has successfully delivered him across the ocean.Maui takes the heart from Moana, turns into a hawk, and flies over the islands. Te Ka roars to life and knocks him out of the sky. He hits the water below and Moana sails up to him and pulls him onto the boat. She tries to sail through a gap between the islands with Te Ka chasing them. Te Ka raises a fist and swings it toward Moana but Maui blocks it with his hook. The force of the impact causes the ocean to swell, pushing the boat away from the islands. When Moana comes to, she sees the canoe badly damaged and Maui shows her the hook with a crack down the middle and a piece missing. He tells her that if the hook takes one more hit, it will be destroyed. He says he's done helping her, turns into a hawk and flies off.After he leaves, a sad, down-hearted Moana begs the ocean to take the heart and find someone else to choose for the task of returning it. After a small hesitation, the ocean, reluctantly, takes the heart and returns it to the bottom of the sea.With the heart gone and feeling lost and unsure of what to do, Moana sees a glowing manta ray approaching the canoe and swims around it. Suddenly it disappears and a familiar voice greets her from the other side of the canoe.She tells Gramma Tala that she doesn't know what to do. Tala tells her to listen to the voice inside her. She envisions all of her ancestors encouraging her to continue the quest. Looking down into the water, she sees the glowing heart and dives in to grab it. When she resurfaces, Tala and the ancestors are gone and she is alone, but she knows what she has to do.She repairs the canoe and sails back to the islands, once again sailing up to the gap. Te Ka reappears and raises a fist to smash the canoe but Moana steers toward another gap, just avoiding the blow. When Te Ka catches up to her, she sails back to and through the first gap. Te Ka sends a giant wave toward her and the canoe capsizes. With boulders raining down around her, she tries to right the boat but she isn't strong enough. Te Ka raises a fist toward her but, at the last second, a hawk appears and blocks the blow. Maui resumes his demigod form and uses his hook to flip the canoe back over. Turning back into a hawk, he flies over Te Ka as Moana sails. Te Ka knocks him out of the sky and he lands on an island. He turns back into a demigod and finds Te Ka about to throw a laval boulder at Moana as she climbs the island mountain. He charges at Te Ka and bats the bolder with his fish hook, destroying both, and allowing Moana to reach the place where the island of Te Fiti should be only to find that Te Fiti is gone.Turning back to Te Ka, Moana notices a pattern on her chest. When Te Ka is about to kill Maui, Moana holds up the heart which starts to glow brightly. Seeing it, Te Ka turns toward Moana. Realizing what she has to do, she asks the ocean to part to allow Te Ka to come to her as she starts walking to meet her. She tells Te Ka to listen to the voice inside herself. She calms down and Moana walks up to her and puts the heart in the center of the spiral on her chest. With the heart restored, Te Ka, who was dark with highlights of red lava, returns to her original form of the green island goddess, Te Fiti. The ocean rises up and deposits Moana, Maui, and Heihei on the shore. Maui apologizes to Te Fiti for stealing her heart and she opens her hand and reveals his hook, completely repaired. Te Fiti lifts up Moana and they touch foreheads, before Moana is returned to the beach. Te Fiti also uses her magic to repair the canoe and decorate it with flowers. Moana tells Maui that he could come with her back to the island since her people need a master wayfinder and he replies that they already have one (meaning Moana herself). He hugs her then turns into a hawk and flies off.Sailing back home, Moana sees that all the plants and fish have returned to Motunui. She jumps out of the canoe and runs to the shore where Sina and Tui are waiting to hug her. Days later, they pull the canoes out of the cavern and put them in the water. The ocean recedes to reveal a pink shell. Moana takes it and climbs up the mountain, depositing it on the pile of stones. Later, Moana is sailing a canoe, with her parents sailing another one (song: "We Know the Way (Finale)"). She teaches others the skills of sailing and wayfinding, passing along what Maui taught her. A glowing manta ray swims past her, and a hawk screeches and dives toward her. Moana realizes she's exactly where she is meant to be.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This Sundance prize-winning documentary is an intimate portrait of 1980s Harlem drag balls: a world of fierce competition, sustenance, and survival. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A studious teen trying to survive in a rough L.A. neighborhood accepts an invitation to an underground party and begins a life-changing adventure. 
+Malcolm is a high school senior obsessed with 1990's hip-hop culture, along with his friends Jib and Diggy, he's a geek who is continually pushed around school. They live in "The Bottoms" part of Inglewood, California, a suburb of Los Angeles. Malcolm's ultimate dream is to go to Harvard but in a meeting with his counselor Mr. Bailey, Bailey calls Malcolm's desire to attend Harvard an arrogant one, and says that his straight A's don't mean a thing. Bailey then reminds Malcolm about his Harvard interview with a man named Austin Jacoby.
+A street drug dealer, Dom, stops Malcolm and tells him to go a building and invite a girl named Nakia to Dom's birthday party. Nakia says she'll go if Malcolm is there. Malcolm tells Jib and Diggy, who both think it would be a great idea if they went.
+The three go to Dom's party. At the party, Dom and his crew are buying powdered Molly when two rival gang members kick in the door and start shooting Dom's crew members, causing panic in the club. Dom hides behind the bar where he finds Malcolm's backpack. Thinking fast, he runs to Malcolm and tells him to run and don't stop. Malcolm sees Nakia on the floor and he helps her up.
+Nakia drives Malcolm home, thanking him for helping her. She likes him for not being like Dom and the other guys she's used to dealing with. He asks Nakia to prom since she says she missed hers and he offers to help her study for her GED. Nakia says she'll think about it. The next morning at school, Malcolm walks through the metal detector, which goes off and the guard dog barks at Malcolm. Since the guard knows Malcolm, he lets him walk away assuming the metal detector is malfunctioning. Malcolm looks in his backpack and finds the "Molly" (MDMA street name) and a gun. Panicked, he runs into the band room with Jib and Diggy. He realizes Dom slipped all of this in his bag during the shootout. Someone then calls Malcolm's phone and demands that he bring the contents of the bag to him later in the day.
+Malcolm walks over to a red El Camino as instructed, until he gets a phone call from Dom as he's being held at the station. He tells Malcolm that he was setup and needs to get out of there immediately since the guys could kill him. He orders Malcolm to go to an address that he'll text him and to ask for "AJ".
+The three go to the address. They meet Jaleel and his half-naked sister Lily. AJ is their father, and won't be home until later and invites the three inside to hang out. Jaleel then takes Jib and Diggy out to get food while Malcolm stays with Lily. She ends up seducing him and offers to take his virginity. Malcolm catches Lily taking some of the molly from his backpack. She straddles Malcolm and vomits on his face. Malcolm then gets a phone call reminding him of his alumni interview. Lily offers to drive him there.
+Lily, still high, drives recklessly through the streets until she passes out at a stop sign. The cops race past them, worried Malcolm tries to wake her up. She springs up yelling that she has to pee. Lily sprints across the road and squats to pee in a bush in front of a coffee shop, with other people watching and taping her. Malcolm takes her car and heads to the meeting himself.
+Malcolm makes his meeting with Austin Jacoby. He realizes Jacoby is AJ after seeing pictures of Dom, Lily, and Jaleel in his office. He mentions having something for the man as instructed by Dom, but Jacoby doesn't want the drugs after this botched delivery. Jacoby implicitly tells him that with Dom in jail, there is no method of selling the drugs, but he needs them sold anyway. He then implicitly says that he will get Malcolm to Harvard if he can sell the drugs. He then reschedules the interview to give Malcolm time. With no other options, Malcolm, Jib, and Diggy decide to seek help from a stoner/hacker they met at band camp years ago named Will Sherwood. Will helps the three organize an online network through Bitcoin transactions that would allow them to sell the molly without getting it traced back to them.
+The drug gets lots of attention after a video of Lily peeing in front of the coffee shop goes viral, so the drug itself is nicknamed "Lily".
+Malcolm runs into Nakia, who still wants to study. He helps her, and she later opens up to him about dealing with guys like Dom. Malcolm thinks she was sent there by Dom to gather info on the drugs. Offended, Nakia leaves and says Malcolm is just like all the other guys. When trying to collect cash in exchange for the Bitcoin currency, Will tells Malcolm that they need to go "black market" for the money and need to meet with another gangster named Fidel X. Malcolm does so and then proceeds to give him a jump drive with the bitcoin information in exchange for the cash.
+Malcolm returns to Jacoby's office and reveals that he secretly linked the bitcoin account to Jacoby's personal accounts. He brings ten percent of the money in cash, but tells Jacoby that he set up the account so that the DEA can trace the account if Jacoby ever tries to transfer the money electronically. Malcolm is the only way to get to the money, so Jacoby cannot kill him. Malcolm then demands that Jacoby get him into Harvard if he wants the money. Jacoby agrees to Malcolm's terms.
+Malcolm goes home and starts to come up with a new college essay. He describes two students Student A is a geek that hangs out with his friends and gets straight A's, while Student B earns a lot of money in an unethical way. He asks, "Which student do you think I am?"
+Malcolm and his friends go to prom together. He waits for Nakia, having apologized and given her a prom ticket. He goes home and finds her standing outside. She thanks Malcolm for helping her pass her GED. She then gives him a pass for Six Flags. She kisses Malcolm's cheek and walks back into her house.
+Malcolm then goes home to find a big envelope from Harvard on his bed. He opens it and reads what's inside. He then looks to the audience for a moment before he smiles.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promising student Zurich opens his eyes to some hard truths when his fraternity's violent hazing escalates into a disastrous hell night. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Princess Diana's death, Queen Elizabeth II and Tony Blair face public demands that she be memorialized in a manner beyond standard protocol. 
+The film begins on the eve of the 1997 British general election, which sees Tony Blair (Sheen) elected as the United Kingdom's first Labour Party Prime Minister in 18 years. While posing for an official portrait, the Queen (Mirren) talks with the artist and expresses her regret about not being allowed to vote. She is slightly wary of the new prime minister and his pledge to "modernise" the country, but Blair promises to respect the independence of the Royal Family. When Blair visits Buckingham Palace to kiss hands, the Queen follows custom and asks him to form a Government in her name.Three months later, during a visit to Paris, Diana, Princess of Wales is killed in a car accident in the Pont de l'Alma tunnel along with her companion Dodi Fayed and driver Henri Paul. Blair's director of communications, Alastair Campbell (Mark Bazeley), immediately prepares a speech in which he describes her as "the people's princess." Blair gives the speech the next morning and the phrase catches on immediately. Over the next few days, millions of British people in London erupt in an outpouring of grief, as they flock to Buckingham and Kensington palaces to leave floral tributes and notes.Meanwhile, the Royal Family are still on their summer residence at Balmoral Castle, the Queen's estate in Aberdeenshire, Scotland. Diana's death immediately sparks division among senior members of the family; while the Queen is saddened by Diana's death, she and her husband differ with Prince Charles, Prince of Wales over what arrangements should be made. The Queen observes that since Diana divorced Charles (Alex Jennings) a year earlier, she is no longer a member of the Royal Family. Consequently, she insists that the funeral arrangements are a "private affair" and are best left to the princess's own family, the Spencers. A visibly grief stricken Prince Charles, however, argues that Diana was mother of the future King and that the Queen's suggestion is dismissive of this fact. Following her mother's suggestion, the Queen eventually sanctions the use of an aircraft of the Royal Flight to bring Diana's body back to Britain. Charles ensures that his ex-wife's coffin is draped with a Royal Standard instead of remaining a "wooden crate."In London, the bouquets begin to pile up along the palace railings, forcing the changing of the guard to use another gate. Meanwhile, British tabloids become increasingly inflammatory about the lack of any statement by the Royal Family. Prince Charles, during a brief conversation with Blair and later through back-channel contacts, leaves no doubt that he shares the Prime Minister's views about the need for a more public expression of grief. As the Queen's ratings plummet, Blair's popularity rises sharply, to the delight of the his Anti-Monarchist advisers and wife Cherie (Helen McCrory).Blair, however, does not share these sentiments. Despite not concurring with the Queen's course of action, he admires her and tells his wife that a Republican Britain is a ludicrous idea. Later on, he angrily denounces the anti-royal disdain of his Labour advisors and accuses Diana of having tried to destroy everything which the monarchy stands for. After days of building pressure, Blair calls the Queen at Balmoral and urgently recommends a course of action he believes is needed to regain the public's confidence in the monarchy. These measures include attending a public funeral for Diana at Westminster Abbey, flying a Union flag at half mast over Buckingham Palace (the flag is only meant to be flown when a Royal person is present and has never been used for mourning), and speaking to the nation about Diana's legacy in a live, televised address from the palace.Blair's recommendations outrage Prince Philip, Duke of Edinburgh (James Cromwell) and Queen Elizabeth, the Queen Mother (Sylvia Syms). Philip is also surprised that Elton John is asked to attend and sing a song, "Candle in the Wind" in Diana's honour. They view such steps as an undignified surrender to public hysteria, created by the tabloids, that will eventually calm down when the public comes to its senses. The Queen seems more concerned about this and although she shares their feelings, she begins to have doubts as she closely follows the news coverage. Speaking with her mother, the Queen muses that there has been some shift in public values, that perhaps she should step aside and hand over the monarchy to the next generation. The Queen Mother dismisses these ideas, however, saying that she is one of the greatest assets the monarchy has ever had, stated: "The real problem will come when you leave." She also reminds her daughter of the promise she made in Cape Town, South Africa, on April 21, 1947, her 21st birthday, in which she promised that her "whole life, whether it be long or short, shall be devoted to your service and the service of our great imperial family to which we all belong..."Later at Balmoral, Philip attempts to distract his grandsons from their mother's death by taking them deer stalking. While venturing out alone in her Land Rover, the Queen damages her vehicle while fording a river and has to call for assistance. While waiting, she weeps in frustration but then catches sight of the majestic Red Deer stag which her grandsons have been stalking. Hearing a distant gunshot, she shoos the animal away. Later that day, the Queen decides to carry out the recommendations of Blair. While preparing to return to London, she is horrified to learn that the stag has been killed on a neighbouring estate, by a visiting stockbroker. She visits the estate where the stag is being dressed and expresses dismay at the amateurish way it was hunted.In the film's climax, the Royal Family return to London and inspect the floral tributes. The Queen also goes on live television to speak about Diana's life and legacy, even going so far as calling her "an exceptional and gifted human being." Two months later, Blair comes to Buckingham Palace for a weekly meeting. The Queen has regained her popularity, but believes she will never quite fully recover from "that week." She cautions Blair that one day he too will find that public opinion can rapidly turn against him. She declares, however, that times have changed and that the monarchy must "modernise." When Blair suggests that he can help with this, The Queen responds, "Don't get ahead of yourself Prime Minister. Remember, I'm supposed to be the one advising you".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this thought-provoking documentary, scholars, activists and politicians analyze the criminalization of African Americans and the U.S. prison boom. 
+The 13th Amendment to the U. S. Constitution abolished slavery. But it also included a provision many people don't know about and that is what this documentary brings to view. "Neither slavery nor involuntary servitude, except as a punishment for crime whereof the party shall have been duly convicted, shall exist." That exception justifies the use of forced labor as long as the laborer is a convict. This documentary makes the case that inclusion of this loophole is only one of the justifications for continuing domination of people of color. The 13th Amendment was ratified in 1865 and director Ava DuVernay supports her thesis through the use of both historical footage and interviews. Film clips of former President Richard Nixon call for 'Law &amp; Order' which has resulted in exploding prison populations. The U. S. only has 5% of the world's population but has 25% of the world's prisoners. This Law &amp; Order policy enabled government to imprison blacks. John Ehrlichman was Assistant to President Nixon for Domestic Affairs: "Did we know we were lying? Of course we did." The documentary makes the case that those drug busts, Jim Crow laws and segregation are all variations of domination of black America. Currently the 'Prison/Industrial Complex' is just a new version of the same old problem. Here DuVernay returns to the 13th Amendment and makes the case that the system cannot be dealt with by making small changes. The system itself has to be rebuilt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A year after her mother's brutal murder, a high school girl and her friends are stalked by a serial killer who's obsessed with horror movies. 
+The film opens with young Casey Becker (Drew Barrymore) recieving phone calls from an unidentified caller. At first it seems as if he has gotten a wrong number, but it soon becomes clear he is toying with her, and his voice gets more and more threatening. Casey becomes frightened when she realizes her caller can see her. She begins to panic when the caller threatens to kill her, and forces her to answer movie trivia in exchange for her life and the life of her boyfriend, Steve, who she sees tied up on her back patio. After killing Steve, the caller torments Casey until finally breaking into the house and chasing her; he is dressed in a black costume with a white ghost mask over his face. He chases her across her lawn just as her parents pull up into the driveway. They do not see her, and Casey is stabbed in the chest, unable to scream. After killing Casey, the murderer strings up her body in the back yard for the parents to discover.We then meet Sidney Prescott (Neve Campbell) and her boyfriend Billy Loomis (Skeet Ulrich). Billy sneaks into her bedroom window and attempts to have sex with her, but Sidney is unsure and wants to remain a virgin for now. They are almost discovered by Sidney's father, Neil (Lawrence Hecht), and he comes into Sidney's room to discuss the fact that he is going out of town. We learn that Sidney's mother was killed almost one year before, and that Sidney and her father are alone. Sidney's testimony identified Cotton Weary (Liev Schreiber) as the killer, although Cotton swears that he is innocent.The next day, Sidney's school is abuzz with news of the murder, and classes are temporarily cancelled. Sidney decides that since her father is gone and she is alone, she is going to stay with her her best friend Tatum (Rose McGowan). Sidney, Tatum, and BIlly sit with their group of friends, which includes Randy (Jamie Kennedy), who is obsessed with horror movies, and Stu (Matthew Lilliard), a class clown type who used to date Casey Becker.Sidney goes home to wait for Tatum to pick her up. The phone rings and she hears a strange voice, the same one that was on the phone with Casey. At first she thinks it is Randy joking around, but the caller turns abusive and brings up Sidney's mother. "Do you wanna die, Sidney? Your mother sure didn't!" The killer emerges from a closet in Sidney's house and a chase starts through out the house and Sidney locks herself in her bedroom and dials 911. Then Billy arrives, climbing through Sidney's window again, and a cell phone falls out of his pocket. Sidney realizes that it may have been him phoning her and she runs downs stairs and out of the house only to be greeted by the police.She is taken to the police station along with Billy, where he is questioned. At the police station, Sidney meets Dewey (David Arquette), Tatum's older brother and the town deputy, who is considered a dolt. Outside the police station, she is confronted by nosy reporter Gail Weathers (Courtney Cox), the writer of an expose about the murder of Sidney's mother. Gail feels that Cotton Weary was wrongfully convicted, and now Gail is following up a story about the murder of Casey Becker; she feels the murders are connected.Tatum takes Sidney to her house, where she recieves another phone call from the killer, who tells her "You got the wrong guy, Sidney...again." The next day at school, Sidney is threatened by the killer while she is in the bathroom, but she escapes.School is over and a curfew is in place, so the group of friends decide to throw a party. Gail Weathers takes a cameraman to the party in an attempt to talk to Sidney, but Dewey intercepts her. The two of them talk and seem to have a mutual affection for one another. They enter the party and Dewey chooses not to bust the partygoers for underage drinking. During the party Billy and Sidney go upstairs and Sidney has sex with him. Meanwhile, Tatum is murdered in the garage by the killer, who has infiltrated the party after all.After the interlude between Sidney and Billy, the door opens and in walks the killer, who stabs Billy in the back. Another chase starts. Dewey is stabbed. Gale, in her newsvan, swerves to avoid hitting Sidney and runs her car down a hill, striking a tree and appearing to be killed.Sidney ends up in the house facing Randy and Stu, both claiming the other is the killer. Stu is vying to come inside and obtain the gun, while Randy wants to leave. Eventually Billy stumbles down the stairs, bloodied, and lets Randy and Stu into the house, shooting Randy and turning to reveal that the blood is fake; Billy was only pretending to be stabbed. He was aided by his accomplice, Stu; both of them are the killers. Billy also reveals that he was responsible for killing Sidney's mother, who had an affair with his father. Billy blamed Mrs. Prescott for the dissolution of his parents' marriage, and murdered Mrs. Prescott out of revenge. Billy and Stu also reveal that they have kidnapped Mr. Prescott, who is tied up in a closet. They have framed Mr. Prescott for the murders, and intend to wound themselves to make it look as if Mr. Prescott attacked them, at which point they will kill both him and Sidney.Billy and Stu inflict flesh wounds on one another with the knife, but they are interrupted by Gail Weathers, who returns, armed with Dewey's gun. Gail forgets to switch off the gun's safety, and a struggle ensues. Sidney strikes back at her tormenters, killing Stu with a television and shooting Billy in the head with the gun. Dewey is revealed to be alive, as is Randy. All ends well as Gale reports that the Macher house has been the scene of what seemed to be some real-life scary movie.
+</t>
   </si>
   <si>
     <t>Thrillers, Psychological Thrillers, Political Thrillers</t>
@@ -107,6 +259,21 @@
     <t>Cult Movies, Documentaries, Biographical Documentaries, Social &amp; Cultural Docs, LGBTQ Movies, LGBTQ Documentaries</t>
   </si>
   <si>
+    <t>Comedies, Dramas, Independent Dramas, Independent Movies, Independent Comedies</t>
+  </si>
+  <si>
+    <t>Dramas, Independent Dramas, Independent Movies</t>
+  </si>
+  <si>
+    <t>Dramas, Biographical Dramas, Dramas based on Real Life, 20th Century Period Pieces, Political Dramas, British Movies</t>
+  </si>
+  <si>
+    <t>Documentaries, Social &amp; Cultural Docs</t>
+  </si>
+  <si>
+    <t>Cult Movies, Cult Horror Movies, Horror Movies, Slasher and Serial Killer Movies, Teen Screams</t>
+  </si>
+  <si>
     <t>Jonathan Demme</t>
   </si>
   <si>
@@ -116,10 +283,37 @@
     <t>Jennie Livingston</t>
   </si>
   <si>
+    <t>Rick Famuyiwa</t>
+  </si>
+  <si>
+    <t>Gerard McMurray</t>
+  </si>
+  <si>
+    <t>Stephen Frears</t>
+  </si>
+  <si>
+    <t>Ava DuVernay</t>
+  </si>
+  <si>
+    <t>Wes Craven</t>
+  </si>
+  <si>
     <t>Denzel Washington, Meryl Streep, Liev Schreiber</t>
   </si>
   <si>
     <t>Auli'i Cravalho, Dwayne Johnson, Rachel House</t>
+  </si>
+  <si>
+    <t>Shameik Moore, Tony Revolori, Kiersey Clemons</t>
+  </si>
+  <si>
+    <t>Trevor Jackson, Alfre Woodard, Trevante Rhodes</t>
+  </si>
+  <si>
+    <t>Helen Mirren, Michael Sheen, James Cromwell</t>
+  </si>
+  <si>
+    <t>Neve Campbell, David Arquette, Courteney Cox</t>
   </si>
 </sst>
 </file>
@@ -210,29 +404,29 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
+      <c r="B2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J2" t="e">
         <v>#N/A</v>
@@ -248,29 +442,29 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
+      <c r="B3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J3" t="e">
         <v>#N/A</v>
@@ -286,37 +480,873 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L23" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L4" t="e">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L26" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/netflix_films.xlsx
+++ b/netflix_films.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+  <si>
+    <t>Netflix_id</t>
+  </si>
   <si>
     <t>title</t>
   </si>
@@ -44,7 +47,7 @@
     <t>episodes</t>
   </si>
   <si>
-    <t>IMDB.id</t>
+    <t>IMDB_id</t>
   </si>
   <si>
     <t>60037627</t>
@@ -200,54 +203,28 @@
     <t>1h 51m</t>
   </si>
   <si>
-    <t xml:space="preserve">Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate. 
-This is a remake of the 1962 thriller of soldiers, returning from war, who have been brainwashed and programmed to kill. The movie has been updated from the Korean War era to the war in Iraq (Desert Storm). Captain Bennett Marco (Denzel Washington) is now playing Frank Sinatra's part. Time has passed, and now Major Marco is giving speeches about his platoon being ambushed in the Kuwaiti desert. The Lost Platoon was saved by the heroics of Sergeant Raymond Prentiss Shaw (Liev Schreiber), who received the Medal of Honor. Shaw is now a candidate, running for Vice-President of the United States. Marco can't sleep at night, and when he does, he is having nightmares of what really happened in the desert. He thinks Shaw might not be a hero, and that he may have had something to do with the death of two soldiers in the desert. Marco tries to find the truth and people around him begin to die.Douglas Young (the-movie-guy)
-</t>
-  </si>
-  <si>
-    <t>A Polynesian girl destined to be her island's chief makes a perilous trip with a boastful demigod to undo his mistake and save her people. 
-Gramma Tala (voice: Rachel House) is telling a story to a group of children, with an animated tapa cloth illustrating her words. From the ocean sprang the island goddess Te Fiti. She lay on her side, with her curves becoming mountains and valleys. And in the center was her heart, a stone with a spiral shape on one side, giving out the force of life. Men began to covet her heart, wanting its life-giving power for themselves. A boat carrying the demigod Maui (voice: Dwayne Johnson) sailed toward the island, and he jumped off and magically transformed into a hawk. He landed on the island and changed again into a lizard to make his way through the forest. Reaching a row of large rocks, he became a bug and squeezed between them. When he reached the heart, he turned back into a man, and he used his large fish hook to pry out the heart.Without her heart, the island of Te Fiti began to crumble. Maui ran to the edge of the island, jumped off a cliff and changed into a hawk in midair, then flew back to his boat. He tried to escape, but a lava monster named Te Ka, who also wanted the heart, arose from the sea into a volcano and started to erupt. Maui grabbed his hook and jumped at Te Ka. There was a blinding flash, and Maui was struck from the sky. Maui, the hook and the heart were lost at sea.A thousand years later, Te Ka still lurks, draining fish from the ocean and swallowing up one island after another until there will be none left. But, Gramma Tala says, one day a hero will journey beyond the reef, find Maui and sail with him across the ocean to restore the heart and save everyone. One little girl is spellbound, but the other children are terrified. Before Tala can continue, Chief Tui (voice: Temuera Morrison) reminds the children of the most important rule of the island, the one that keeps them safe: nobody goes beyond the reef.The spellbound girl, the toddler Moana (voice: Louise Bush), slips away and walks to the beach. She sees a baby turtle being menaced by a group of seabirds and she escorts it into the ocean, shading it with a leaf and shooing the birds away. When the turtle is safe, the ocean recedes, revealing a trail of beautiful seashells, which Moana gathers in her tiny arms. A wave forms over her head and magically stays in place. She pokes the wave with her finger and water drips down on her. The wave comes down over her hair and gives her a silly hairstyle. Moana plays with the wave some more, and then the ocean parts, making a canyon that she walks through. She sees a shiny object, and the ocean brings it closer. It's a glowing green stone with an interesting spiral shape.She picks up the stone and, just then, her father, Chief Tui, calls out to her. The ocean lifts her and deposits her back on the shore. Her father races over and picks her up, causing her to drop the stone. Before she can see where it went, her father pulls her close and tells her never to go into the ocean again. He takes her back to the village where her mother, Sina (voice: Nicole Scherzinger), is waiting for them. She tells Moana that she will do wondrous things as the next chief of the island but Tui tells her that she must learn where she's meant to be.Growing up, Moana learns everything about life on her island, Motunui (song: "Where You Are"). She finds herself drawn to the ocean but, every time she goes near it, her parents drag her back, away from the water. She never even learns to sail. Gramma Tala encourages Moana to follow her heart and listen to the voice inside, to figure out who she really is. One day, Chief Tui leads the now sixteen-year-old Moana (voice: Auli'i Cravalho) up to the peak of the tallest mountain. He shows her a tall pile of stones and tells her that one day, she will place her stone on the pile, just as he and the chiefs before him did.Moana makes her rounds of the island, giving advice to everyone who asks. When a man points out the rooster Heihei (voice: Alan Tudyk) dumbly pecking at a rock, Moana tells him that sometimes strength is hidden beneath the surface. A fisherman walks up to her and tells her that there are fewer fish every day. She suggests fishing in different areas but they have already tried that. She tells him that they should try fishing beyond the reef but Tui reminds her of the rule. The men walk away, leaving Moana alone. Sina walks up to her and explains that once, Tui went sailing beyond the reef with a friend and ran into giant waves. Tui was unable to save his friend and he doesn't want to lose Moana the same way. Sina tells her she must make her own choices, however hard they are.Moana climbs the peak, preparing to add her stone to the pile. She sees the sun reflect off the ocean and she realizes that she can't ignore the call of the water any more (song: "How Far I'll Go"). She drops her stone and runs down to the sea. She takes her pet pig, Pua, on a boat and casts off. She feels excitement as a wave picks her up but then the wind changes and the boom swings toward her and just misses her head. She feels relief but another wave hits the boat, knocking Pua overboard. A third wave hits, knocking her off as well and breaking the boat. She hits the surface with Pua in her arms but waves continue to hit the broken boat, driving it into her head and pushing her underwater. She gets her foot trapped in coral, unable to break free. She grabs a rock and smashes the coral then swims back to the surface. The waves push her and Pua back to the shore. The boat comes back in pieces and Moana knows she'll be in trouble for what she did. Gramma Tala walks up to her and Moana says that Tui was right about going out there. She tells Tala that she's going to put her stone on the pile. Tala sees a school of manta rays swim up and says that when she dies, she's going to come back as one of them. Desperate for advice, Moana asks Tala if there's anything she wants to tell her and Tala asks her if there's anything she wants to hear. Tala walks off and Moana decides to follow her, knowing that she would tell a good story.Carrying a torch, Tala leads Moana into a cavern. Tala tells her to go inside and bang the drum to get the answers she's looking for. Moana carefully makes her way into the dark cavern, finding dozens of boats--outrigger sailing canoes. She jumps onto a canoe and sees a log drum. Picking up a pair of sticks next to it, she bangs on the drum, causing torches to magically light up, illuminating the tapa sail. She sees an image of her ancestors, voyagers who fearlessly sailed the ocean, finding new homes whenever they needed to (song: "We Know the Way"). She asks Tala why they ever stopped voyaging and Tala tells her about Maui. After he stole the heart, the ships that sailed out never came back. And Te Ka has been chasing away the fish, draining life from one island after another. She repeats what she told Moana as a child, that one day someone will restore the heart and save everyone. Then, she presses a green stone into Moana's hand. Moana recognizes it as the same stone the ocean lead her to years before. Tala points to a hook-shaped constellation and tells her that Maui can be found at the bottom of his hook.Tui is talking to the island council, trying to reassure them that they won't run out of food, when Moana bursts in and tells him that she can restore the heart of Te Fiti. Angrily, he grabs the green stone from her hand and throws it into the bushes. She runs to get it and finds Gramma Tala's walking stick as well. A warrior runs up and tells them that Tala is not well. Moana and Tui run toward her hut. Tala whispers in Moana's ear that she must leave now and then hands her the necklace that her voyager ancestors wore. Moana puts the heart of Te Fiti in the necklace and makes up her mind to leave. Grabbing supplies, she heads to the cavern and boards one of the canoes. As she sails off, she sees the light in Tala's hut go out. She sees the glow of a manta ray passing by, illuminating a safe passage. It looks just like her grandmother's manta ray tattoo. Reaching the ocean, Moana sets a course for Maui.Moana paddles the boat through the night and day. A clucking noise leads her to find Heihei in the cargo hold. As night falls, she starts to fall asleep and when a wave shocks her awake, she looks at the sky, unable to find the hook constellation. She sees that it's now behind her and tries to turn the boat around, but the wind pushes it over, dumping her into the water. She swims back to the boat and tries to right it, but the waves get worse. A large wave crashes down on her and everything goes black.When she opens her eyes, she finds herself on a shore. Feeling for her necklace, she is relieved to find the heart is still there. She sees Heihei pecking at a rock and notices that it has a hook design on it. Following a set of footprints, she sees a camp, and realizes Maui must be inside. She ducks behind her boat to prepare herself and Maui comes out and sees the boat. Joyously, he picks it up with one hand, revealing Moana behind it. He thinks she's just a young fan of his and he picks up Heihei and uses his beak to scratch a sort of autograph (a heart and a hook) into Moana's oar. He jokes that when you write with a bird, it's called tweeting.Moana tries to give the speech she's been practicing, telling him who she is, that she knows he stole the heart of Te Fiti, and that she needs him to restore it. He isn't interested but he distracts her by boasting about his exploits (song: "You're Welcome"). Moana gets a first glimpse of Maui's animated tattoos, which help him tell stories and sometimes serve as his conscience. Maui tosses her into a cave and rolls a boulder over the entrance. He takes her boat and sails off to get his magic hook. Inside the cave, Moana sees a statue that Maui made of himself. Finding a small opening in the ceiling, she climbs the statue, tips it over and climbs out. Seeing Maui sailing away, she jumps into the ocean to swim after him, but she can't keep up. Suddenly the ocean pulls her along rapidly and deposits her on the boat. Maui throws her off and the ocean puts her right back on. Maui throws away the heart and the ocean throws it back at him. He jumps off himself and the ocean puts him back on the boat. He tells her that the heart is a curse and bad things will come for them if they keep it. Just then, a spear lands on the side of the boat. Looking into a bank of fog, they see a large silhouette moving toward them.Maui tells Moana that they're under attack by the Kakamora, tiny coconut-shelled warriors. His first impulse is to flee but, when he urgently orders Moana to tighten the halyard and find the stays, she looks bewildered. "You can't sail?" he asks incredulously. "I'm self-taught," she replies. Meanwhile, the Kakamora load spears tied to ropes into their catapults, launch them at the boat, and zip-line across to it. They knock Moana to the deck, dislodging the heart from the necklace. Heihei gobbles up the heart and the Kakamora grab him and take him back to their ship. Moana tells Maui that they have to get Heihei back and Maui sails close to the other ship but he is intent on escape and not retrieving the heart. Moana jumps across and bats the Kakamora away with an oar. She runs past the Kakamora chief and grabs Heihei as they shoot blow darts at her. She uses a spear with a rope to zip-line herself back to her canoe. Heihei regurgitates the heart which Moana triumphantly grabs, before realizing that they are surrounded by Kakamora boats.Maui expertly sails through the swarm of boats, causing them to collide and sink. Maui tells Moana he won't help her return the heart but she says he'd be the biggest hero ever if he did. He replies that he won't be able to defeat Te Ka without his magic hook, so she says they need to go and get it. Maui sails them to the lair of Tamatoa (voice: Jemaine Clement), teaching Moana about sailing and wayfinding (celestial navigation) as they go. He moors the ship at a tall spire, the entrance to Lalotai, the realm of monsters. He tells her to stay put as he climbs the spire but she decides to follow him. They reach the plateau at the top and Maui stomps the ground, making a face carving appear. The mouth opens, revealing a vortex below. He jumps in and Moana follows him. They fall through the air and land in an ocean, still falling. They break into the underworld and a monster grabs Moana with its tongue.The monster is pulling Moana toward its mouth when another monster eats the first and she falls to the ground still wrapped in the first monster's tongue. She looks around and sees Maui's hook inside a cave, surrounded by treasure. Maui pops up behind her and tells her that he's going to use her as a distraction. She bangs gold objects together, trying to make as much noise as possible. Maui tells her that when Tamatoa shows up, she should get him to talk about himself. The floor rumbles and Tamatoa, a crab monster, greets her. He grabs her in a claw and asks her what she's doing there. As Maui sneaks toward the hook, Moana tells Tamatoa that she came to rob him but, now that she sees his splendor, she has to know how he became so beautiful. Smiling, Tamatoa tells her that he decorated himself and his cave with gold to lure in fish (song: "Shiny"). Then he lifts Moana in the air and draws her toward his mouth. Just then, Maui grabs his hook and pulls Moana free. He tries to transform into a hawk but ends up turning into other animals and then back to his demigod form. Tamatoa knocks Maui across the cave with a claw and continues hitting him. Moana begs him to stop but he throws her into a bone cage and continues hitting Maui. Moana slips out of the cage, unseen, and notices a crack in the cave's wall that she can escape through. Looking back, she realizes she can't leave Maui behind.Tamatoa grabs the hook back from Maui and knocks him across the cave again. As he's preparing to deliver a death blow, Moana holds up the green, glowing heart to get his attention. Tamatoa drops Maui and chases Moana, who loses her footing and drops the heart and it falls into a crevice. Tamatoa tries to grab it and Moana takes the hook and brings it to Maui, telling him they have to leave. He asks about the heart and she shows him the necklace with the heart still inside. When Tamatoa reaches into the crevice, he pulls out a barnacle covered with glowing algae. Enraged, he pursues the pair, who run out of the cave. They reach a geyser that erupts and shoots them high in the air and back into the ocean above.Returning to the shore, Maui tells Moana that since he can't control his transformations, they have no chance of beating Te Ka. She sees a tattoo on his back of a woman throwing a baby in to the sea, and asks him how he got it. He says that he was born a human and his mother didn't want him, tossing him into the ocean as a baby. But the gods found him, raised him, and gave him the hook. She says that the gods saw something in him that was worth saving and he starts practicing his transformations. He regains control, turning into a bug, a lizard, a shark and a hawk. Maui lets Moana navigate this time and, in the morning, she sees a ring of islands surrounding Te Fiti. Maui tells her that she has successfully delivered him across the ocean.Maui takes the heart from Moana, turns into a hawk, and flies over the islands. Te Ka roars to life and knocks him out of the sky. He hits the water below and Moana sails up to him and pulls him onto the boat. She tries to sail through a gap between the islands with Te Ka chasing them. Te Ka raises a fist and swings it toward Moana but Maui blocks it with his hook. The force of the impact causes the ocean to swell, pushing the boat away from the islands. When Moana comes to, she sees the canoe badly damaged and Maui shows her the hook with a crack down the middle and a piece missing. He tells her that if the hook takes one more hit, it will be destroyed. He says he's done helping her, turns into a hawk and flies off.After he leaves, a sad, down-hearted Moana begs the ocean to take the heart and find someone else to choose for the task of returning it. After a small hesitation, the ocean, reluctantly, takes the heart and returns it to the bottom of the sea.With the heart gone and feeling lost and unsure of what to do, Moana sees a glowing manta ray approaching the canoe and swims around it. Suddenly it disappears and a familiar voice greets her from the other side of the canoe.She tells Gramma Tala that she doesn't know what to do. Tala tells her to listen to the voice inside her. She envisions all of her ancestors encouraging her to continue the quest. Looking down into the water, she sees the glowing heart and dives in to grab it. When she resurfaces, Tala and the ancestors are gone and she is alone, but she knows what she has to do.She repairs the canoe and sails back to the islands, once again sailing up to the gap. Te Ka reappears and raises a fist to smash the canoe but Moana steers toward another gap, just avoiding the blow. When Te Ka catches up to her, she sails back to and through the first gap. Te Ka sends a giant wave toward her and the canoe capsizes. With boulders raining down around her, she tries to right the boat but she isn't strong enough. Te Ka raises a fist toward her but, at the last second, a hawk appears and blocks the blow. Maui resumes his demigod form and uses his hook to flip the canoe back over. Turning back into a hawk, he flies over Te Ka as Moana sails. Te Ka knocks him out of the sky and he lands on an island. He turns back into a demigod and finds Te Ka about to throw a laval boulder at Moana as she climbs the island mountain. He charges at Te Ka and bats the bolder with his fish hook, destroying both, and allowing Moana to reach the place where the island of Te Fiti should be only to find that Te Fiti is gone.Turning back to Te Ka, Moana notices a pattern on her chest. When Te Ka is about to kill Maui, Moana holds up the heart which starts to glow brightly. Seeing it, Te Ka turns toward Moana. Realizing what she has to do, she asks the ocean to part to allow Te Ka to come to her as she starts walking to meet her. She tells Te Ka to listen to the voice inside herself. She calms down and Moana walks up to her and puts the heart in the center of the spiral on her chest. With the heart restored, Te Ka, who was dark with highlights of red lava, returns to her original form of the green island goddess, Te Fiti. The ocean rises up and deposits Moana, Maui, and Heihei on the shore. Maui apologizes to Te Fiti for stealing her heart and she opens her hand and reveals his hook, completely repaired. Te Fiti lifts up Moana and they touch foreheads, before Moana is returned to the beach. Te Fiti also uses her magic to repair the canoe and decorate it with flowers. Moana tells Maui that he could come with her back to the island since her people need a master wayfinder and he replies that they already have one (meaning Moana herself). He hugs her then turns into a hawk and flies off.Sailing back home, Moana sees that all the plants and fish have returned to Motunui. She jumps out of the canoe and runs to the shore where Sina and Tui are waiting to hug her. Days later, they pull the canoes out of the cavern and put them in the water. The ocean recedes to reveal a pink shell. Moana takes it and climbs up the mountain, depositing it on the pile of stones. Later, Moana is sailing a canoe, with her parents sailing another one (song: "We Know the Way (Finale)"). She teaches others the skills of sailing and wayfinding, passing along what Maui taught her. A glowing manta ray swims past her, and a hawk screeches and dives toward her. Moana realizes she's exactly where she is meant to be.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This Sundance prize-winning documentary is an intimate portrait of 1980s Harlem drag balls: a world of fierce competition, sustenance, and survival. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A studious teen trying to survive in a rough L.A. neighborhood accepts an invitation to an underground party and begins a life-changing adventure. 
-Malcolm is a high school senior obsessed with 1990's hip-hop culture, along with his friends Jib and Diggy, he's a geek who is continually pushed around school. They live in "The Bottoms" part of Inglewood, California, a suburb of Los Angeles. Malcolm's ultimate dream is to go to Harvard but in a meeting with his counselor Mr. Bailey, Bailey calls Malcolm's desire to attend Harvard an arrogant one, and says that his straight A's don't mean a thing. Bailey then reminds Malcolm about his Harvard interview with a man named Austin Jacoby.
-A street drug dealer, Dom, stops Malcolm and tells him to go a building and invite a girl named Nakia to Dom's birthday party. Nakia says she'll go if Malcolm is there. Malcolm tells Jib and Diggy, who both think it would be a great idea if they went.
-The three go to Dom's party. At the party, Dom and his crew are buying powdered Molly when two rival gang members kick in the door and start shooting Dom's crew members, causing panic in the club. Dom hides behind the bar where he finds Malcolm's backpack. Thinking fast, he runs to Malcolm and tells him to run and don't stop. Malcolm sees Nakia on the floor and he helps her up.
-Nakia drives Malcolm home, thanking him for helping her. She likes him for not being like Dom and the other guys she's used to dealing with. He asks Nakia to prom since she says she missed hers and he offers to help her study for her GED. Nakia says she'll think about it. The next morning at school, Malcolm walks through the metal detector, which goes off and the guard dog barks at Malcolm. Since the guard knows Malcolm, he lets him walk away assuming the metal detector is malfunctioning. Malcolm looks in his backpack and finds the "Molly" (MDMA street name) and a gun. Panicked, he runs into the band room with Jib and Diggy. He realizes Dom slipped all of this in his bag during the shootout. Someone then calls Malcolm's phone and demands that he bring the contents of the bag to him later in the day.
-Malcolm walks over to a red El Camino as instructed, until he gets a phone call from Dom as he's being held at the station. He tells Malcolm that he was setup and needs to get out of there immediately since the guys could kill him. He orders Malcolm to go to an address that he'll text him and to ask for "AJ".
-The three go to the address. They meet Jaleel and his half-naked sister Lily. AJ is their father, and won't be home until later and invites the three inside to hang out. Jaleel then takes Jib and Diggy out to get food while Malcolm stays with Lily. She ends up seducing him and offers to take his virginity. Malcolm catches Lily taking some of the molly from his backpack. She straddles Malcolm and vomits on his face. Malcolm then gets a phone call reminding him of his alumni interview. Lily offers to drive him there.
-Lily, still high, drives recklessly through the streets until she passes out at a stop sign. The cops race past them, worried Malcolm tries to wake her up. She springs up yelling that she has to pee. Lily sprints across the road and squats to pee in a bush in front of a coffee shop, with other people watching and taping her. Malcolm takes her car and heads to the meeting himself.
-Malcolm makes his meeting with Austin Jacoby. He realizes Jacoby is AJ after seeing pictures of Dom, Lily, and Jaleel in his office. He mentions having something for the man as instructed by Dom, but Jacoby doesn't want the drugs after this botched delivery. Jacoby implicitly tells him that with Dom in jail, there is no method of selling the drugs, but he needs them sold anyway. He then implicitly says that he will get Malcolm to Harvard if he can sell the drugs. He then reschedules the interview to give Malcolm time. With no other options, Malcolm, Jib, and Diggy decide to seek help from a stoner/hacker they met at band camp years ago named Will Sherwood. Will helps the three organize an online network through Bitcoin transactions that would allow them to sell the molly without getting it traced back to them.
-The drug gets lots of attention after a video of Lily peeing in front of the coffee shop goes viral, so the drug itself is nicknamed "Lily".
-Malcolm runs into Nakia, who still wants to study. He helps her, and she later opens up to him about dealing with guys like Dom. Malcolm thinks she was sent there by Dom to gather info on the drugs. Offended, Nakia leaves and says Malcolm is just like all the other guys. When trying to collect cash in exchange for the Bitcoin currency, Will tells Malcolm that they need to go "black market" for the money and need to meet with another gangster named Fidel X. Malcolm does so and then proceeds to give him a jump drive with the bitcoin information in exchange for the cash.
-Malcolm returns to Jacoby's office and reveals that he secretly linked the bitcoin account to Jacoby's personal accounts. He brings ten percent of the money in cash, but tells Jacoby that he set up the account so that the DEA can trace the account if Jacoby ever tries to transfer the money electronically. Malcolm is the only way to get to the money, so Jacoby cannot kill him. Malcolm then demands that Jacoby get him into Harvard if he wants the money. Jacoby agrees to Malcolm's terms.
-Malcolm goes home and starts to come up with a new college essay. He describes two students Student A is a geek that hangs out with his friends and gets straight A's, while Student B earns a lot of money in an unethical way. He asks, "Which student do you think I am?"
-Malcolm and his friends go to prom together. He waits for Nakia, having apologized and given her a prom ticket. He goes home and finds her standing outside. She thanks Malcolm for helping her pass her GED. She then gives him a pass for Six Flags. She kisses Malcolm's cheek and walks back into her house.
-Malcolm then goes home to find a big envelope from Harvard on his bed. He opens it and reads what's inside. He then looks to the audience for a moment before he smiles.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promising student Zurich opens his eyes to some hard truths when his fraternity's violent hazing escalates into a disastrous hell night. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After Princess Diana's death, Queen Elizabeth II and Tony Blair face public demands that she be memorialized in a manner beyond standard protocol. 
-The film begins on the eve of the 1997 British general election, which sees Tony Blair (Sheen) elected as the United Kingdom's first Labour Party Prime Minister in 18 years. While posing for an official portrait, the Queen (Mirren) talks with the artist and expresses her regret about not being allowed to vote. She is slightly wary of the new prime minister and his pledge to "modernise" the country, but Blair promises to respect the independence of the Royal Family. When Blair visits Buckingham Palace to kiss hands, the Queen follows custom and asks him to form a Government in her name.Three months later, during a visit to Paris, Diana, Princess of Wales is killed in a car accident in the Pont de l'Alma tunnel along with her companion Dodi Fayed and driver Henri Paul. Blair's director of communications, Alastair Campbell (Mark Bazeley), immediately prepares a speech in which he describes her as "the people's princess." Blair gives the speech the next morning and the phrase catches on immediately. Over the next few days, millions of British people in London erupt in an outpouring of grief, as they flock to Buckingham and Kensington palaces to leave floral tributes and notes.Meanwhile, the Royal Family are still on their summer residence at Balmoral Castle, the Queen's estate in Aberdeenshire, Scotland. Diana's death immediately sparks division among senior members of the family; while the Queen is saddened by Diana's death, she and her husband differ with Prince Charles, Prince of Wales over what arrangements should be made. The Queen observes that since Diana divorced Charles (Alex Jennings) a year earlier, she is no longer a member of the Royal Family. Consequently, she insists that the funeral arrangements are a "private affair" and are best left to the princess's own family, the Spencers. A visibly grief stricken Prince Charles, however, argues that Diana was mother of the future King and that the Queen's suggestion is dismissive of this fact. Following her mother's suggestion, the Queen eventually sanctions the use of an aircraft of the Royal Flight to bring Diana's body back to Britain. Charles ensures that his ex-wife's coffin is draped with a Royal Standard instead of remaining a "wooden crate."In London, the bouquets begin to pile up along the palace railings, forcing the changing of the guard to use another gate. Meanwhile, British tabloids become increasingly inflammatory about the lack of any statement by the Royal Family. Prince Charles, during a brief conversation with Blair and later through back-channel contacts, leaves no doubt that he shares the Prime Minister's views about the need for a more public expression of grief. As the Queen's ratings plummet, Blair's popularity rises sharply, to the delight of the his Anti-Monarchist advisers and wife Cherie (Helen McCrory).Blair, however, does not share these sentiments. Despite not concurring with the Queen's course of action, he admires her and tells his wife that a Republican Britain is a ludicrous idea. Later on, he angrily denounces the anti-royal disdain of his Labour advisors and accuses Diana of having tried to destroy everything which the monarchy stands for. After days of building pressure, Blair calls the Queen at Balmoral and urgently recommends a course of action he believes is needed to regain the public's confidence in the monarchy. These measures include attending a public funeral for Diana at Westminster Abbey, flying a Union flag at half mast over Buckingham Palace (the flag is only meant to be flown when a Royal person is present and has never been used for mourning), and speaking to the nation about Diana's legacy in a live, televised address from the palace.Blair's recommendations outrage Prince Philip, Duke of Edinburgh (James Cromwell) and Queen Elizabeth, the Queen Mother (Sylvia Syms). Philip is also surprised that Elton John is asked to attend and sing a song, "Candle in the Wind" in Diana's honour. They view such steps as an undignified surrender to public hysteria, created by the tabloids, that will eventually calm down when the public comes to its senses. The Queen seems more concerned about this and although she shares their feelings, she begins to have doubts as she closely follows the news coverage. Speaking with her mother, the Queen muses that there has been some shift in public values, that perhaps she should step aside and hand over the monarchy to the next generation. The Queen Mother dismisses these ideas, however, saying that she is one of the greatest assets the monarchy has ever had, stated: "The real problem will come when you leave." She also reminds her daughter of the promise she made in Cape Town, South Africa, on April 21, 1947, her 21st birthday, in which she promised that her "whole life, whether it be long or short, shall be devoted to your service and the service of our great imperial family to which we all belong..."Later at Balmoral, Philip attempts to distract his grandsons from their mother's death by taking them deer stalking. While venturing out alone in her Land Rover, the Queen damages her vehicle while fording a river and has to call for assistance. While waiting, she weeps in frustration but then catches sight of the majestic Red Deer stag which her grandsons have been stalking. Hearing a distant gunshot, she shoos the animal away. Later that day, the Queen decides to carry out the recommendations of Blair. While preparing to return to London, she is horrified to learn that the stag has been killed on a neighbouring estate, by a visiting stockbroker. She visits the estate where the stag is being dressed and expresses dismay at the amateurish way it was hunted.In the film's climax, the Royal Family return to London and inspect the floral tributes. The Queen also goes on live television to speak about Diana's life and legacy, even going so far as calling her "an exceptional and gifted human being." Two months later, Blair comes to Buckingham Palace for a weekly meeting. The Queen has regained her popularity, but believes she will never quite fully recover from "that week." She cautions Blair that one day he too will find that public opinion can rapidly turn against him. She declares, however, that times have changed and that the monarchy must "modernise." When Blair suggests that he can help with this, The Queen responds, "Don't get ahead of yourself Prime Minister. Remember, I'm supposed to be the one advising you".
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this thought-provoking documentary, scholars, activists and politicians analyze the criminalization of African Americans and the U.S. prison boom. 
-The 13th Amendment to the U. S. Constitution abolished slavery. But it also included a provision many people don't know about and that is what this documentary brings to view. "Neither slavery nor involuntary servitude, except as a punishment for crime whereof the party shall have been duly convicted, shall exist." That exception justifies the use of forced labor as long as the laborer is a convict. This documentary makes the case that inclusion of this loophole is only one of the justifications for continuing domination of people of color. The 13th Amendment was ratified in 1865 and director Ava DuVernay supports her thesis through the use of both historical footage and interviews. Film clips of former President Richard Nixon call for 'Law &amp; Order' which has resulted in exploding prison populations. The U. S. only has 5% of the world's population but has 25% of the world's prisoners. This Law &amp; Order policy enabled government to imprison blacks. John Ehrlichman was Assistant to President Nixon for Domestic Affairs: "Did we know we were lying? Of course we did." The documentary makes the case that those drug busts, Jim Crow laws and segregation are all variations of domination of black America. Currently the 'Prison/Industrial Complex' is just a new version of the same old problem. Here DuVernay returns to the 13th Amendment and makes the case that the system cannot be dealt with by making small changes. The system itself has to be rebuilt.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A year after her mother's brutal murder, a high school girl and her friends are stalked by a serial killer who's obsessed with horror movies. 
-The film opens with young Casey Becker (Drew Barrymore) recieving phone calls from an unidentified caller. At first it seems as if he has gotten a wrong number, but it soon becomes clear he is toying with her, and his voice gets more and more threatening. Casey becomes frightened when she realizes her caller can see her. She begins to panic when the caller threatens to kill her, and forces her to answer movie trivia in exchange for her life and the life of her boyfriend, Steve, who she sees tied up on her back patio. After killing Steve, the caller torments Casey until finally breaking into the house and chasing her; he is dressed in a black costume with a white ghost mask over his face. He chases her across her lawn just as her parents pull up into the driveway. They do not see her, and Casey is stabbed in the chest, unable to scream. After killing Casey, the murderer strings up her body in the back yard for the parents to discover.We then meet Sidney Prescott (Neve Campbell) and her boyfriend Billy Loomis (Skeet Ulrich). Billy sneaks into her bedroom window and attempts to have sex with her, but Sidney is unsure and wants to remain a virgin for now. They are almost discovered by Sidney's father, Neil (Lawrence Hecht), and he comes into Sidney's room to discuss the fact that he is going out of town. We learn that Sidney's mother was killed almost one year before, and that Sidney and her father are alone. Sidney's testimony identified Cotton Weary (Liev Schreiber) as the killer, although Cotton swears that he is innocent.The next day, Sidney's school is abuzz with news of the murder, and classes are temporarily cancelled. Sidney decides that since her father is gone and she is alone, she is going to stay with her her best friend Tatum (Rose McGowan). Sidney, Tatum, and BIlly sit with their group of friends, which includes Randy (Jamie Kennedy), who is obsessed with horror movies, and Stu (Matthew Lilliard), a class clown type who used to date Casey Becker.Sidney goes home to wait for Tatum to pick her up. The phone rings and she hears a strange voice, the same one that was on the phone with Casey. At first she thinks it is Randy joking around, but the caller turns abusive and brings up Sidney's mother. "Do you wanna die, Sidney? Your mother sure didn't!" The killer emerges from a closet in Sidney's house and a chase starts through out the house and Sidney locks herself in her bedroom and dials 911. Then Billy arrives, climbing through Sidney's window again, and a cell phone falls out of his pocket. Sidney realizes that it may have been him phoning her and she runs downs stairs and out of the house only to be greeted by the police.She is taken to the police station along with Billy, where he is questioned. At the police station, Sidney meets Dewey (David Arquette), Tatum's older brother and the town deputy, who is considered a dolt. Outside the police station, she is confronted by nosy reporter Gail Weathers (Courtney Cox), the writer of an expose about the murder of Sidney's mother. Gail feels that Cotton Weary was wrongfully convicted, and now Gail is following up a story about the murder of Casey Becker; she feels the murders are connected.Tatum takes Sidney to her house, where she recieves another phone call from the killer, who tells her "You got the wrong guy, Sidney...again." The next day at school, Sidney is threatened by the killer while she is in the bathroom, but she escapes.School is over and a curfew is in place, so the group of friends decide to throw a party. Gail Weathers takes a cameraman to the party in an attempt to talk to Sidney, but Dewey intercepts her. The two of them talk and seem to have a mutual affection for one another. They enter the party and Dewey chooses not to bust the partygoers for underage drinking. During the party Billy and Sidney go upstairs and Sidney has sex with him. Meanwhile, Tatum is murdered in the garage by the killer, who has infiltrated the party after all.After the interlude between Sidney and Billy, the door opens and in walks the killer, who stabs Billy in the back. Another chase starts. Dewey is stabbed. Gale, in her newsvan, swerves to avoid hitting Sidney and runs her car down a hill, striking a tree and appearing to be killed.Sidney ends up in the house facing Randy and Stu, both claiming the other is the killer. Stu is vying to come inside and obtain the gun, while Randy wants to leave. Eventually Billy stumbles down the stairs, bloodied, and lets Randy and Stu into the house, shooting Randy and turning to reveal that the blood is fake; Billy was only pretending to be stabbed. He was aided by his accomplice, Stu; both of them are the killers. Billy also reveals that he was responsible for killing Sidney's mother, who had an affair with his father. Billy blamed Mrs. Prescott for the dissolution of his parents' marriage, and murdered Mrs. Prescott out of revenge. Billy and Stu also reveal that they have kidnapped Mr. Prescott, who is tied up in a closet. They have framed Mr. Prescott for the murders, and intend to wound themselves to make it look as if Mr. Prescott attacked them, at which point they will kill both him and Sidney.Billy and Stu inflict flesh wounds on one another with the knife, but they are interrupted by Gail Weathers, who returns, armed with Dewey's gun. Gail forgets to switch off the gun's safety, and a struggle ensues. Sidney strikes back at her tormenters, killing Stu with a television and shooting Billy in the head with the gun. Dewey is revealed to be alive, as is Randy. All ends well as Gale reports that the Macher house has been the scene of what seemed to be some real-life scary movie.
-</t>
+    <t>Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate.</t>
+  </si>
+  <si>
+    <t>A Polynesian girl destined to be her island's chief makes a perilous trip with a boastful demigod to undo his mistake and save her people.</t>
+  </si>
+  <si>
+    <t>This Sundance prize-winning documentary is an intimate portrait of 1980s Harlem drag balls: a world of fierce competition, sustenance, and survival.</t>
+  </si>
+  <si>
+    <t>A studious teen trying to survive in a rough L.A. neighborhood accepts an invitation to an underground party and begins a life-changing adventure.</t>
+  </si>
+  <si>
+    <t>Promising student Zurich opens his eyes to some hard truths when his fraternity's violent hazing escalates into a disastrous hell night.</t>
+  </si>
+  <si>
+    <t>After Princess Diana's death, Queen Elizabeth II and Tony Blair face public demands that she be memorialized in a manner beyond standard protocol.</t>
+  </si>
+  <si>
+    <t>In this thought-provoking documentary, scholars, activists and politicians analyze the criminalization of African Americans and the U.S. prison boom.</t>
+  </si>
+  <si>
+    <t>A year after her mother's brutal murder, a high school girl and her friends are stalked by a serial killer who's obsessed with horror movies.</t>
   </si>
   <si>
     <t>Thrillers, Psychological Thrillers, Political Thrillers</t>
@@ -314,6 +291,30 @@
   </si>
   <si>
     <t>Neve Campbell, David Arquette, Courteney Cox</t>
+  </si>
+  <si>
+    <t>tt0368008</t>
+  </si>
+  <si>
+    <t>tt3521164</t>
+  </si>
+  <si>
+    <t>tt0100332</t>
+  </si>
+  <si>
+    <t>tt3850214</t>
+  </si>
+  <si>
+    <t>tt5826432</t>
+  </si>
+  <si>
+    <t>tt0436697</t>
+  </si>
+  <si>
+    <t>tt5895028</t>
+  </si>
+  <si>
+    <t>tt0117571</t>
   </si>
 </sst>
 </file>
@@ -399,10 +400,13 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="e">
         <v>#N/A</v>
@@ -435,12 +439,15 @@
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M2" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="e">
         <v>#N/A</v>
@@ -473,12 +480,15 @@
         <v>#N/A</v>
       </c>
       <c r="L3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="e">
         <v>#N/A</v>
@@ -511,12 +521,15 @@
         <v>#N/A</v>
       </c>
       <c r="L4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="e">
         <v>#N/A</v>
@@ -549,12 +562,15 @@
         <v>#N/A</v>
       </c>
       <c r="L5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="e">
         <v>#N/A</v>
@@ -587,12 +603,15 @@
         <v>#N/A</v>
       </c>
       <c r="L6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="e">
         <v>#N/A</v>
@@ -625,12 +644,15 @@
         <v>#N/A</v>
       </c>
       <c r="L7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="e">
         <v>#N/A</v>
@@ -663,12 +685,15 @@
         <v>#N/A</v>
       </c>
       <c r="L8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="e">
         <v>#N/A</v>
@@ -701,12 +726,15 @@
         <v>#N/A</v>
       </c>
       <c r="L9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="e">
         <v>#N/A</v>
@@ -739,12 +767,15 @@
         <v>#N/A</v>
       </c>
       <c r="L10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="e">
         <v>#N/A</v>
@@ -777,12 +808,15 @@
         <v>#N/A</v>
       </c>
       <c r="L11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="e">
         <v>#N/A</v>
@@ -815,12 +849,15 @@
         <v>#N/A</v>
       </c>
       <c r="L12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="e">
         <v>#N/A</v>
@@ -853,12 +890,15 @@
         <v>#N/A</v>
       </c>
       <c r="L13" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="e">
         <v>#N/A</v>
@@ -891,12 +931,15 @@
         <v>#N/A</v>
       </c>
       <c r="L14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="e">
         <v>#N/A</v>
@@ -929,12 +972,15 @@
         <v>#N/A</v>
       </c>
       <c r="L15" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="e">
         <v>#N/A</v>
@@ -967,12 +1013,15 @@
         <v>#N/A</v>
       </c>
       <c r="L16" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="e">
         <v>#N/A</v>
@@ -1005,12 +1054,15 @@
         <v>#N/A</v>
       </c>
       <c r="L17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M17" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="e">
         <v>#N/A</v>
@@ -1043,112 +1095,121 @@
         <v>#N/A</v>
       </c>
       <c r="L18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6.0037627E7</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" t="e">
-        <v>#N/A</v>
+        <v>79</v>
+      </c>
+      <c r="J19" t="s">
+        <v>87</v>
       </c>
       <c r="K19" t="e">
         <v>#N/A</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8.0108238E7</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" t="e">
-        <v>#N/A</v>
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>88</v>
       </c>
       <c r="K20" t="e">
         <v>#N/A</v>
       </c>
       <c r="L20" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M20" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.0036691E7</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I21" t="e">
-        <v>#N/A</v>
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>81</v>
       </c>
       <c r="J21" t="e">
         <v>#N/A</v>
@@ -1158,149 +1219,161 @@
       </c>
       <c r="L21" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.0037759E7</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" t="e">
-        <v>#N/A</v>
+        <v>82</v>
+      </c>
+      <c r="J22" t="s">
+        <v>89</v>
       </c>
       <c r="K22" t="e">
         <v>#N/A</v>
       </c>
       <c r="L22" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M22" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8.0097003E7</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" t="e">
-        <v>#N/A</v>
+        <v>83</v>
+      </c>
+      <c r="J23" t="s">
+        <v>90</v>
       </c>
       <c r="K23" t="e">
         <v>#N/A</v>
       </c>
       <c r="L23" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M23" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7.0052705E7</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" t="e">
-        <v>#N/A</v>
+        <v>84</v>
+      </c>
+      <c r="J24" t="s">
+        <v>91</v>
       </c>
       <c r="K24" t="e">
         <v>#N/A</v>
       </c>
       <c r="L24" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M24" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.0091741E7</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" t="e">
-        <v>#N/A</v>
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>85</v>
       </c>
       <c r="J25" t="e">
         <v>#N/A</v>
@@ -1310,44 +1383,50 @@
       </c>
       <c r="L25" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B26" t="n">
+        <v>939827.0</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" t="e">
-        <v>#N/A</v>
+        <v>86</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
       </c>
       <c r="K26" t="e">
         <v>#N/A</v>
       </c>
       <c r="L26" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="M26" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/netflix_films.xlsx
+++ b/netflix_films.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
   <si>
     <t>Netflix_id</t>
   </si>
@@ -65,6 +65,15 @@
     <t>70177083</t>
   </si>
   <si>
+    <t>1e+08</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>abcdefgh</t>
+  </si>
+  <si>
     <t>80144588</t>
   </si>
   <si>
@@ -101,15 +110,6 @@
     <t>939827</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>The Manchurian Candidate</t>
@@ -1105,32 +1114,32 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="n">
-        <v>6.0037627E7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I19" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" t="s">
-        <v>87</v>
+      <c r="B19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J19" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K19" t="e">
         <v>#N/A</v>
@@ -1138,40 +1147,40 @@
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M19" t="s">
-        <v>93</v>
+      <c r="M19" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="n">
-        <v>8.0108238E7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" t="s">
-        <v>88</v>
+      <c r="B20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J20" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K20" t="e">
         <v>#N/A</v>
@@ -1179,37 +1188,37 @@
       <c r="L20" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M20" t="s">
-        <v>94</v>
+      <c r="M20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="n">
-        <v>6.0036691E7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" t="s">
-        <v>81</v>
+      <c r="B21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I21" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J21" t="e">
         <v>#N/A</v>
@@ -1220,16 +1229,16 @@
       <c r="L21" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M21" t="s">
-        <v>95</v>
+      <c r="M21" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
-        <v>8.0037759E7</v>
+      <c r="B22" t="s">
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>40</v>
@@ -1238,7 +1247,7 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
         <v>59</v>
@@ -1253,7 +1262,7 @@
         <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="e">
         <v>#N/A</v>
@@ -1269,8 +1278,8 @@
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="n">
-        <v>8.0097003E7</v>
+      <c r="B23" t="s">
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
@@ -1279,10 +1288,10 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
         <v>67</v>
@@ -1294,7 +1303,7 @@
         <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K23" t="e">
         <v>#N/A</v>
@@ -1310,8 +1319,8 @@
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="n">
-        <v>7.0052705E7</v>
+      <c r="B24" t="s">
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -1323,7 +1332,7 @@
         <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
         <v>68</v>
@@ -1334,8 +1343,8 @@
       <c r="I24" t="s">
         <v>84</v>
       </c>
-      <c r="J24" t="s">
-        <v>91</v>
+      <c r="J24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K24" t="e">
         <v>#N/A</v>
@@ -1351,20 +1360,20 @@
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="n">
-        <v>8.0091741E7</v>
+      <c r="B25" t="s">
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
         <v>69</v>
@@ -1375,8 +1384,8 @@
       <c r="I25" t="s">
         <v>85</v>
       </c>
-      <c r="J25" t="e">
-        <v>#N/A</v>
+      <c r="J25" t="s">
+        <v>92</v>
       </c>
       <c r="K25" t="e">
         <v>#N/A</v>
@@ -1392,17 +1401,17 @@
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="n">
-        <v>939827.0</v>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
         <v>62</v>
@@ -1417,7 +1426,7 @@
         <v>86</v>
       </c>
       <c r="J26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" t="e">
         <v>#N/A</v>
@@ -1427,6 +1436,129 @@
       </c>
       <c r="M26" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/netflix_films.xlsx
+++ b/netflix_films.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="183">
   <si>
     <t>Netflix_id</t>
   </si>
@@ -50,6 +50,147 @@
     <t>IMDB_id</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
     <t>60037627</t>
   </si>
   <si>
@@ -59,39 +200,9 @@
     <t>60036691</t>
   </si>
   <si>
-    <t>80025678</t>
-  </si>
-  <si>
-    <t>70177083</t>
-  </si>
-  <si>
-    <t>1e+08</t>
-  </si>
-  <si>
-    <t>10000000</t>
-  </si>
-  <si>
-    <t>abcdefgh</t>
-  </si>
-  <si>
-    <t>80144588</t>
-  </si>
-  <si>
     <t>80037759</t>
   </si>
   <si>
-    <t>70184207</t>
-  </si>
-  <si>
-    <t>80025384</t>
-  </si>
-  <si>
-    <t>80000770</t>
-  </si>
-  <si>
-    <t>80107369</t>
-  </si>
-  <si>
     <t>80097003</t>
   </si>
   <si>
@@ -101,37 +212,25 @@
     <t>80091741</t>
   </si>
   <si>
-    <t>80117470</t>
-  </si>
-  <si>
-    <t>80053653</t>
-  </si>
-  <si>
     <t>939827</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>80168188</t>
+  </si>
+  <si>
+    <t>70049392</t>
+  </si>
+  <si>
+    <t>80088567</t>
+  </si>
+  <si>
+    <t>70300205</t>
+  </si>
+  <si>
+    <t>70208248</t>
+  </si>
+  <si>
+    <t>60029157</t>
   </si>
   <si>
     <t>The Manchurian Candidate</t>
@@ -158,6 +257,24 @@
     <t>Scream</t>
   </si>
   <si>
+    <t>Chasing Coral</t>
+  </si>
+  <si>
+    <t>The Astronaut Farmer</t>
+  </si>
+  <si>
+    <t>Captain America: Civil War</t>
+  </si>
+  <si>
+    <t>The Babadook</t>
+  </si>
+  <si>
+    <t>J. Edgar</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: The Curse of the Black Pearl</t>
+  </si>
+  <si>
     <t>2004</t>
   </si>
   <si>
@@ -179,6 +296,15 @@
     <t>1996</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -191,6 +317,12 @@
     <t>PG-13</t>
   </si>
   <si>
+    <t>TV-PG</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
     <t>2h 9m</t>
   </si>
   <si>
@@ -212,6 +344,24 @@
     <t>1h 51m</t>
   </si>
   <si>
+    <t>1h 29m</t>
+  </si>
+  <si>
+    <t>1h 44m</t>
+  </si>
+  <si>
+    <t>2h 28m</t>
+  </si>
+  <si>
+    <t>1h 33m</t>
+  </si>
+  <si>
+    <t>2h 16m</t>
+  </si>
+  <si>
+    <t>2h 23m</t>
+  </si>
+  <si>
     <t>Two U.S. soldiers in the first Gulf War are programmed to rebel once they return home. Several years later, one becomes a vice presidential candidate.</t>
   </si>
   <si>
@@ -236,6 +386,24 @@
     <t>A year after her mother's brutal murder, a high school girl and her friends are stalked by a serial killer who's obsessed with horror movies.</t>
   </si>
   <si>
+    <t>Divers, scientists and photographers around the world mount an epic underwater campaign to document the disappearance of coral reefs.</t>
+  </si>
+  <si>
+    <t>A NASA astronaut in training must shelve his dream to save his family's farm -- until one day, he decides to build a homegrown rocket in his barn.</t>
+  </si>
+  <si>
+    <t>It's Avengers vs. Avengers when Captain America fights to keep his superhero friends independent, while his pal Iron Man supports government control.</t>
+  </si>
+  <si>
+    <t>Sam's frequent tantrums turn sinister when a creepy children's book mysteriously appears in his room, and he asks his mother, "Do you want to die?"</t>
+  </si>
+  <si>
+    <t>This biopic profiles J. Edgar Hoover, who pushed the envelope professionally and led a complex personal life over nearly 50 years as head of the FBI.</t>
+  </si>
+  <si>
+    <t>When a young swain recruits pirate Capt. Jack Sparrow to help rescue a maiden from rival buccaneers, he finds he's up against supernatural forces.</t>
+  </si>
+  <si>
     <t>Thrillers, Psychological Thrillers, Political Thrillers</t>
   </si>
   <si>
@@ -260,6 +428,24 @@
     <t>Cult Movies, Cult Horror Movies, Horror Movies, Slasher and Serial Killer Movies, Teen Screams</t>
   </si>
   <si>
+    <t>Documentaries, Science &amp; Nature Docs</t>
+  </si>
+  <si>
+    <t>Dramas, Independent Dramas, Independent Movies, Sci-Fi &amp; Fantasy, Sci-Fi Dramas</t>
+  </si>
+  <si>
+    <t>Action &amp; Adventure, Adventures, Comic Book and Superhero Movies, Sci-Fi &amp; Fantasy, Action Sci-Fi &amp; Fantasy, Sci-Fi Adventure</t>
+  </si>
+  <si>
+    <t>Thrillers, Independent Thrillers, Psychological Thrillers, Supernatural Thrillers, Horror Movies, Supernatural Horror Movies, Independent Movies, Australian Movies</t>
+  </si>
+  <si>
+    <t>Dramas, Biographical Dramas, Crime Dramas, Dramas based on Real Life, 20th Century Period Pieces, Political Dramas</t>
+  </si>
+  <si>
+    <t>Action &amp; Adventure, Action Comedies, Adventures, Disney, Comedies</t>
+  </si>
+  <si>
     <t>Jonathan Demme</t>
   </si>
   <si>
@@ -284,6 +470,24 @@
     <t>Wes Craven</t>
   </si>
   <si>
+    <t>Jeff Orlowski</t>
+  </si>
+  <si>
+    <t>Michael Polish</t>
+  </si>
+  <si>
+    <t>Anthony Russo, Joe Russo</t>
+  </si>
+  <si>
+    <t>Jennifer Kent</t>
+  </si>
+  <si>
+    <t>Clint Eastwood</t>
+  </si>
+  <si>
+    <t>Gore Verbinski</t>
+  </si>
+  <si>
     <t>Denzel Washington, Meryl Streep, Liev Schreiber</t>
   </si>
   <si>
@@ -302,6 +506,21 @@
     <t>Neve Campbell, David Arquette, Courteney Cox</t>
   </si>
   <si>
+    <t>Billy Bob Thornton, Virginia Madsen, Bruce Dern</t>
+  </si>
+  <si>
+    <t>Chris Evans, Robert Downey Jr., Scarlett Johansson</t>
+  </si>
+  <si>
+    <t>Essie Davis, Noah Wiseman, Hayley McElhinney</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio, Naomi Watts, Judi Dench</t>
+  </si>
+  <si>
+    <t>Johnny Depp, Geoffrey Rush, Orlando Bloom</t>
+  </si>
+  <si>
     <t>tt0368008</t>
   </si>
   <si>
@@ -324,6 +543,24 @@
   </si>
   <si>
     <t>tt0117571</t>
+  </si>
+  <si>
+    <t>tt6333054</t>
+  </si>
+  <si>
+    <t>tt0469263</t>
+  </si>
+  <si>
+    <t>tt3498820</t>
+  </si>
+  <si>
+    <t>tt2321549</t>
+  </si>
+  <si>
+    <t>tt1616195</t>
+  </si>
+  <si>
+    <t>tt0325980</t>
   </si>
 </sst>
 </file>
@@ -1237,32 +1474,32 @@
       <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" t="s">
-        <v>90</v>
+      <c r="B22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J22" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K22" t="e">
         <v>#N/A</v>
@@ -1270,40 +1507,40 @@
       <c r="L22" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M22" t="s">
-        <v>96</v>
+      <c r="M22" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" t="s">
-        <v>91</v>
+      <c r="B23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J23" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K23" t="e">
         <v>#N/A</v>
@@ -1311,37 +1548,37 @@
       <c r="L23" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M23" t="s">
-        <v>97</v>
+      <c r="M23" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s">
-        <v>84</v>
+      <c r="B24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I24" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J24" t="e">
         <v>#N/A</v>
@@ -1352,40 +1589,40 @@
       <c r="L24" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M24" t="s">
-        <v>98</v>
+      <c r="M24" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" t="s">
-        <v>69</v>
-      </c>
-      <c r="H25" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" t="s">
-        <v>92</v>
+      <c r="B25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J25" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K25" t="e">
         <v>#N/A</v>
@@ -1393,40 +1630,40 @@
       <c r="L25" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M25" t="s">
-        <v>99</v>
+      <c r="M25" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" t="s">
-        <v>93</v>
+      <c r="B26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J26" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K26" t="e">
         <v>#N/A</v>
@@ -1434,40 +1671,40 @@
       <c r="L26" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M26" t="s">
-        <v>100</v>
+      <c r="M26" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" t="s">
-        <v>94</v>
+      <c r="B27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I27" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J27" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K27" t="e">
         <v>#N/A</v>
@@ -1475,37 +1712,37 @@
       <c r="L27" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M27" t="s">
-        <v>101</v>
+      <c r="M27" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" t="s">
-        <v>88</v>
+      <c r="B28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H28" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I28" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J28" t="e">
         <v>#N/A</v>
@@ -1516,49 +1753,828 @@
       <c r="L28" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M28" t="s">
-        <v>102</v>
+      <c r="M28" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L33" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L36" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" t="s">
+        <v>133</v>
+      </c>
+      <c r="I38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" t="s">
+        <v>160</v>
+      </c>
+      <c r="K38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L38" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L39" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J40" t="s">
+        <v>162</v>
+      </c>
+      <c r="K40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" t="s">
+        <v>122</v>
+      </c>
+      <c r="H41" t="s">
+        <v>136</v>
+      </c>
+      <c r="I41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L41" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I42" t="s">
+        <v>151</v>
+      </c>
+      <c r="J42" t="s">
+        <v>163</v>
+      </c>
+      <c r="K42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L43" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
         <v>54</v>
       </c>
-      <c r="E29" t="s">
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" t="s">
+        <v>139</v>
+      </c>
+      <c r="I44" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" t="s">
+        <v>164</v>
+      </c>
+      <c r="K44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L44" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
         <v>55</v>
       </c>
-      <c r="F29" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" t="s">
+        <v>140</v>
+      </c>
+      <c r="I45" t="s">
+        <v>154</v>
+      </c>
+      <c r="J45" t="s">
+        <v>165</v>
+      </c>
+      <c r="K45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46" t="s">
+        <v>166</v>
+      </c>
+      <c r="K46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M46" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" t="s">
         <v>95</v>
       </c>
-      <c r="K29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M29" t="s">
-        <v>103</v>
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G47" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" t="s">
+        <v>142</v>
+      </c>
+      <c r="I47" t="s">
+        <v>156</v>
+      </c>
+      <c r="J47" t="s">
+        <v>167</v>
+      </c>
+      <c r="K47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" t="s">
+        <v>129</v>
+      </c>
+      <c r="H48" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48" t="s">
+        <v>168</v>
+      </c>
+      <c r="K48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M48" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
